--- a/acdimer_lineshape_results_c5.xlsx
+++ b/acdimer_lineshape_results_c5.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG13"/>
+  <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -2012,6 +2012,1040 @@
         <v>0.4920181325896466</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Pulse Time (us)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>ToTF</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>EF</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>kF</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>barnu</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>C_theory</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>pulsetype</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>Bfield</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>OmegaR</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>MaxTransfer</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>CS_pred</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>SR_median</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>SR_upper</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>SR_lower</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>SR_mean</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>SR_std</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>FM_median</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>FM_upper</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>FM_lower</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>FM_mean</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>FM_std</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>CS_median</t>
+        </is>
+      </c>
+      <c r="X14" s="2" t="inlineStr">
+        <is>
+          <t>CS_upper</t>
+        </is>
+      </c>
+      <c r="Y14" s="2" t="inlineStr">
+        <is>
+          <t>CS_lower</t>
+        </is>
+      </c>
+      <c r="Z14" s="2" t="inlineStr">
+        <is>
+          <t>CS_mean</t>
+        </is>
+      </c>
+      <c r="AA14" s="2" t="inlineStr">
+        <is>
+          <t>CS_std</t>
+        </is>
+      </c>
+      <c r="AB14" s="2" t="inlineStr">
+        <is>
+          <t>C_median</t>
+        </is>
+      </c>
+      <c r="AC14" s="2" t="inlineStr">
+        <is>
+          <t>C_upper</t>
+        </is>
+      </c>
+      <c r="AD14" s="2" t="inlineStr">
+        <is>
+          <t>C_lower</t>
+        </is>
+      </c>
+      <c r="AE14" s="2" t="inlineStr">
+        <is>
+          <t>C_mean</t>
+        </is>
+      </c>
+      <c r="AF14" s="2" t="inlineStr">
+        <is>
+          <t>C_std</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-07-17_I_e</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0006400000000000001</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>352</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>202.14</v>
+      </c>
+      <c r="J15" t="n">
+        <v>20.62400724873968</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1986273539162016</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.01332549939205179</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.01453987961438726</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.01239944068327151</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.01343098598645554</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.001133973413765547</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-3.998767850776375</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-3.720742829247024</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-4.362855763969241</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-4.030317869038285</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.3402098503742242</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-7.99753570155275</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-7.441485658494049</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-8.725711527938483</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-8.06063573807657</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.6804197007484484</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1.622686553218685</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1.770432204622983</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1.509864933977543</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1.635489444583701</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.1380560137712449</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Pulse Time (us)</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>ToTF</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>EF</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>kF</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>barnu</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>C_theory</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>pulsetype</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>Bfield</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>OmegaR</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>MaxTransfer</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>CS_pred</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>SR_median</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>SR_upper</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>SR_lower</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>SR_mean</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>SR_std</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>FM_median</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>FM_upper</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>FM_lower</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>FM_mean</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>FM_std</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>CS_median</t>
+        </is>
+      </c>
+      <c r="X16" s="2" t="inlineStr">
+        <is>
+          <t>CS_upper</t>
+        </is>
+      </c>
+      <c r="Y16" s="2" t="inlineStr">
+        <is>
+          <t>CS_lower</t>
+        </is>
+      </c>
+      <c r="Z16" s="2" t="inlineStr">
+        <is>
+          <t>CS_mean</t>
+        </is>
+      </c>
+      <c r="AA16" s="2" t="inlineStr">
+        <is>
+          <t>CS_std</t>
+        </is>
+      </c>
+      <c r="AB16" s="2" t="inlineStr">
+        <is>
+          <t>C_median</t>
+        </is>
+      </c>
+      <c r="AC16" s="2" t="inlineStr">
+        <is>
+          <t>C_upper</t>
+        </is>
+      </c>
+      <c r="AD16" s="2" t="inlineStr">
+        <is>
+          <t>C_lower</t>
+        </is>
+      </c>
+      <c r="AE16" s="2" t="inlineStr">
+        <is>
+          <t>C_mean</t>
+        </is>
+      </c>
+      <c r="AF16" s="2" t="inlineStr">
+        <is>
+          <t>C_std</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-07-17_J_e</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0006400000000000001</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D17" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>352</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>202.14</v>
+      </c>
+      <c r="J17" t="n">
+        <v>16.55813153398814</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.1462596221911726</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.01735284592152237</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.01880200112824683</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.01584599689821474</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.01736440485614223</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.001513432312644912</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-5.20732249681058</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-4.754691607119519</v>
+      </c>
+      <c r="T17" t="n">
+        <v>-5.641792162011486</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-5.210978028070936</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.4548446654375014</v>
+      </c>
+      <c r="W17" t="n">
+        <v>-10.41464499362116</v>
+      </c>
+      <c r="X17" t="n">
+        <v>-9.509383214239039</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>-11.28358432402297</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>-10.42195605614187</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.9096893308750028</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>2.113113966395201</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>2.289420296197781</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1.929437872737878</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>2.114597368693711</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.1845744364143036</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Pulse Time (us)</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>ToTF</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>EF</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>kF</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>barnu</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>C_theory</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>pulsetype</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>Bfield</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>OmegaR</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>MaxTransfer</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>CS_pred</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>SR_median</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>SR_upper</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>SR_lower</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>SR_mean</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>SR_std</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>FM_median</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>FM_upper</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>FM_lower</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>FM_mean</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>FM_std</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>CS_median</t>
+        </is>
+      </c>
+      <c r="X18" s="2" t="inlineStr">
+        <is>
+          <t>CS_upper</t>
+        </is>
+      </c>
+      <c r="Y18" s="2" t="inlineStr">
+        <is>
+          <t>CS_lower</t>
+        </is>
+      </c>
+      <c r="Z18" s="2" t="inlineStr">
+        <is>
+          <t>CS_mean</t>
+        </is>
+      </c>
+      <c r="AA18" s="2" t="inlineStr">
+        <is>
+          <t>CS_std</t>
+        </is>
+      </c>
+      <c r="AB18" s="2" t="inlineStr">
+        <is>
+          <t>C_median</t>
+        </is>
+      </c>
+      <c r="AC18" s="2" t="inlineStr">
+        <is>
+          <t>C_upper</t>
+        </is>
+      </c>
+      <c r="AD18" s="2" t="inlineStr">
+        <is>
+          <t>C_lower</t>
+        </is>
+      </c>
+      <c r="AE18" s="2" t="inlineStr">
+        <is>
+          <t>C_mean</t>
+        </is>
+      </c>
+      <c r="AF18" s="2" t="inlineStr">
+        <is>
+          <t>C_std</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-08-08_J_e</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8.000000000000001e-05</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="D19" t="n">
+        <v>14</v>
+      </c>
+      <c r="E19" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>352</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>202.14</v>
+      </c>
+      <c r="J19" t="n">
+        <v>46.99327365962827</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.08558017299796414</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.01691733505563808</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.02007630175081578</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.01420666020032586</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.0171602556888642</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.002944500400776548</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-4.815652678044121</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-4.045291431628377</v>
+      </c>
+      <c r="T19" t="n">
+        <v>-5.715340028798793</v>
+      </c>
+      <c r="U19" t="n">
+        <v>-4.885796886246344</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.8377032793483717</v>
+      </c>
+      <c r="W19" t="n">
+        <v>-9.631305356088243</v>
+      </c>
+      <c r="X19" t="n">
+        <v>-8.090582863256754</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>-11.43068005759759</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>-9.771593772492688</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1.675406558696743</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.95417567041722</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>2.319265773331572</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1.641565665953742</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1.982639954337533</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.3399371750780382</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Pulse Time (us)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>ToTF</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>EF</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>kF</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>barnu</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>C_theory</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>pulsetype</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>Bfield</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>OmegaR</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>MaxTransfer</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>CS_pred</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>SR_median</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>SR_upper</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>SR_lower</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>SR_mean</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>SR_std</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>FM_median</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>FM_upper</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>FM_lower</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>FM_mean</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>FM_std</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>CS_median</t>
+        </is>
+      </c>
+      <c r="X20" s="2" t="inlineStr">
+        <is>
+          <t>CS_upper</t>
+        </is>
+      </c>
+      <c r="Y20" s="2" t="inlineStr">
+        <is>
+          <t>CS_lower</t>
+        </is>
+      </c>
+      <c r="Z20" s="2" t="inlineStr">
+        <is>
+          <t>CS_mean</t>
+        </is>
+      </c>
+      <c r="AA20" s="2" t="inlineStr">
+        <is>
+          <t>CS_std</t>
+        </is>
+      </c>
+      <c r="AB20" s="2" t="inlineStr">
+        <is>
+          <t>C_median</t>
+        </is>
+      </c>
+      <c r="AC20" s="2" t="inlineStr">
+        <is>
+          <t>C_upper</t>
+        </is>
+      </c>
+      <c r="AD20" s="2" t="inlineStr">
+        <is>
+          <t>C_lower</t>
+        </is>
+      </c>
+      <c r="AE20" s="2" t="inlineStr">
+        <is>
+          <t>C_mean</t>
+        </is>
+      </c>
+      <c r="AF20" s="2" t="inlineStr">
+        <is>
+          <t>C_std</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-07-17_I_e</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0006400000000000001</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D21" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>352</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>202.14</v>
+      </c>
+      <c r="J21" t="n">
+        <v>20.62400724873968</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1986273539162016</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>0.01332631006647015</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.01460841762252887</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.01244275398157287</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.01346850496477607</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.001145512450201186</v>
+      </c>
+      <c r="R21" t="n">
+        <v>-3.998903897694251</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-3.733647698514851</v>
+      </c>
+      <c r="T21" t="n">
+        <v>-4.382762855786289</v>
+      </c>
+      <c r="U21" t="n">
+        <v>-4.041613308894902</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.3436220400725709</v>
+      </c>
+      <c r="W21" t="n">
+        <v>-7.997807795388503</v>
+      </c>
+      <c r="X21" t="n">
+        <v>-7.467295397029702</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>-8.765525711572579</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>-8.083226617789803</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.6872440801451417</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.62274176060068</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1.778510435570783</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>1.515101686550685</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.640073096111374</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.1394406688818094</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
